--- a/Шульгин/reflection_2035.xlsx
+++ b/Шульгин/reflection_2035.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:F484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,6 +379,11 @@
           <t>Чему новому, как вам кажется, вы научились ?</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>leader_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -406,6 +411,11 @@
           <t>Была получены, с приведением примеров из жизни, знания в отношении порядка работы с интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1162596</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -433,6 +443,11 @@
           <t>узнала много нового про особенности патентования, как в России, так и зарубежом.</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1154947</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -458,6 +473,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>получила необходимые  сведения из нормативных документов</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1176702</t>
         </is>
       </c>
     </row>
@@ -475,6 +495,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1168772</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -494,6 +519,11 @@
           <t>узнала более узкие моменты в проведении патентного поиска</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1166247</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -521,6 +551,11 @@
           <t>В данном курсе я научился управлять правами на результаты интеллектуальной собственности, также принимать меры по правовой охране результатов интеллектуальной собственности, различать изобретения и полезную модель,  выявлять охраноспособные продукты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1168752</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -548,6 +583,11 @@
           <t>Правовой базе в русле интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1099051</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -575,6 +615,11 @@
           <t>Узнала о патентной стратегии, международном законодательстве в области защиты интеллектуальных прав</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1157273</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +643,11 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1155212</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -617,6 +667,11 @@
           <t>Разбираться в сфере интеллектуальной собственности и решению возможных конфликтов в этой сфере.</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1159648</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -642,6 +697,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>Узнала больше об интеллектуальной собственности и возможностях ее защиты.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1158976</t>
         </is>
       </c>
     </row>
@@ -663,6 +723,11 @@
           <t>управлять правами на результаты интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1171463</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -686,6 +751,11 @@
           <t>весь материал был для меня новым</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1156502</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -713,6 +783,11 @@
           <t>Правовой защите интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1153894</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -736,6 +811,11 @@
           <t>Защите интеллектуальных прав</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1151385</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -761,6 +841,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Понимать особенности основной терминологии, используемой в сфере управления интеллектуальной собственностью</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>929068</t>
         </is>
       </c>
     </row>
@@ -778,6 +863,11 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1156974</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -805,6 +895,11 @@
           <t>Заострено внимание на основы законодательства в сфере ИС, проиллюстрированы конфликты интересов в сфере интеллектуальных прав, а также изучено понятие патентного портфеля и возможности управления им</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>778387</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -832,6 +927,11 @@
           <t>понятиям, основаниям и управлением ИС</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>417048</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -855,6 +955,11 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1159146</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -882,6 +987,11 @@
           <t>Патентное право гибкое, может быть адаптировано к реальным условиям. Позитивно общение коллег.</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1163150</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -909,6 +1019,11 @@
           <t>новым знаниям</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1167684</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -936,6 +1051,11 @@
           <t>поняла, что это целая вселенная. И не просто можно создать что-то (модель, изобретение), а то еще нужно и защитить . Раньше всегда считала, что хватит публикаций в открытых истчониках</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1153332</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -959,6 +1079,11 @@
           <t>Я нашла для себя ответы, что необходимо для создания научной работы. И поняла, как реализуется авторское право в жизни.</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1168092</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -986,6 +1111,11 @@
           <t>Качественная юридическая информация.  даны важные алгоритмы действий.</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1154507</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1007,6 +1137,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>Патентной стратегии</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1128168</t>
         </is>
       </c>
     </row>
@@ -1024,6 +1159,11 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1166801</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1051,6 +1191,11 @@
           <t>Узнала, какие бывают объекты интеллектуальных прав, способы защиты, их преимущества. Основы российского законодательства в этой сфере, а также международные аспекты защиты прав на ИС</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1155482</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1078,6 +1223,11 @@
           <t>Пониманию серьезности и необходимости знаний в сфере управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1155936</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1105,6 +1255,11 @@
           <t>Как выявлять РИД, которые нуждаются в охране, каким образом можно управлять правами на РИД, какие меры можно применить для защиты интеллектуальных прав</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1150096</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1128,6 +1283,11 @@
           <t>Узнала особенности авторского права, принципы работы с интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1158669</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1151,6 +1311,7 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1178,6 +1339,11 @@
           <t>Данный курс стал абсолютно новым знанием для меня. Я получила общее представление о том, что такое патентоведение, и теперь знаю, какие меры нужно предпринимать по правовой охране РИД.</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1162424</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1205,6 +1371,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1155184</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1228,6 +1399,11 @@
           <t>Получены основы знаний в части охраны интеллектуальной собственности, существенно расширены знания в области патентоведения</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1157168</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1255,6 +1431,11 @@
           <t>Изучила понятия связанные с темой "интеллектуальная собственность". Поняла принцип определения интеллектуальной собственности.ь</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1150241</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1459,11 @@
           <t>Изучила стратегии борьбы в отношении ИС</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1155140</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1301,6 +1487,11 @@
           <t>Я изучила основы института интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1151780</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1326,6 +1517,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>Выявлять охраноспособные РИД</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1154892</t>
         </is>
       </c>
     </row>
@@ -1347,6 +1543,11 @@
           <t>Сложно ответить</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1165333</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1370,6 +1571,11 @@
           <t>базовые знания патентоведения</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1118032</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1397,6 +1603,11 @@
           <t>Международное право в области интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1166241</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1424,6 +1635,11 @@
           <t>т.к. не связана с данной темой, то довольно сложно ответить на вопрос. В целом, пока не вижу применимости в своей области.</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1154752</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1451,6 +1667,11 @@
           <t>Появилось понимание патентной чистоты, факта использования изобретения, товарных знаков.</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1148950</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1478,6 +1699,11 @@
           <t>Я узнала о способах и методах защиты интеллектуальных прав, в частности базовую правовую информацию, виды патентов, стратегии конкурентной борьбы.</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1155513</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1505,6 +1731,11 @@
           <t>Общим представлениям о патентоведении в целом, правами и ответственности.</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1151024</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1532,6 +1763,11 @@
           <t>изучать материал в он-лайн</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1155656</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1557,6 +1793,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>узнала, что такое интеллектуальная собственность, что такое патентное право, патентный портфель, как защитить свои права по интеллектуальной  собственности</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1154025</t>
         </is>
       </c>
     </row>
@@ -1574,6 +1815,11 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1130036</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1601,6 +1847,11 @@
           <t>выявлять охраноспособные РИД</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1150206</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1626,6 +1877,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Познакомился с правовой охраной интеллектуальной деятельности</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>297310</t>
         </is>
       </c>
     </row>
@@ -1647,6 +1903,11 @@
           <t>1. Что необходимо предпринимать для защиты ИС. 2 необходимость патентования при разработке новой КД, а также проверять решения на патентную чистоту</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1157054</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1674,6 +1935,11 @@
           <t>Общее представление о интеллектуальной собственности и законах об интеллектуальной собственности в РФ</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>894781</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1701,6 +1967,11 @@
           <t>Понимание, что такое РИД, какие стратегии применимы в данной сфере.</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1152418</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1728,6 +1999,11 @@
           <t>управление интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1151219</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1753,6 +2029,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Управлять правами на результаты интеллектуальной деятельности</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1164367</t>
         </is>
       </c>
     </row>
@@ -1770,6 +2051,11 @@
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1160463</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1797,6 +2083,11 @@
           <t>Анализировать ситуауцию и принимать быстрые решения.</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1161106</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1824,6 +2115,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1157047</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1851,6 +2147,11 @@
           <t>владеть понятиями интеллектуальная собственность, исключительное право, патентование, секрет производства, товарный знак, доменное имя и др., использовать авторское право, оценивать результаты интеллектуальной деятельности, риски нарушения прав в сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1157643</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1878,6 +2179,11 @@
           <t>тестироваться на платформе exams</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1175055</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1905,6 +2211,11 @@
           <t>получила знания о правилах и правах в сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1155490</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1924,6 +2235,11 @@
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>651735</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1951,6 +2267,11 @@
           <t>управлять правами интелликтуальной собственности и изучения данного рынка</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1153369</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1978,6 +2299,11 @@
           <t>узнали многое</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1150278</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2005,6 +2331,11 @@
           <t>Я научилась различать защиту РИД по изобретению, промышленному образцу и полезной модели. Разницу патентования  в нашей стране и за ее пределами. Разираться как выделить новизну используя формулу.</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1155884</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2032,6 +2363,11 @@
           <t>Выявлять РИД.</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1157705</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2059,6 +2395,11 @@
           <t>Я разобралась с основными понятиями и определениями в сфере  интеллектуальной собственности. Как выявлять объекты ИС и как они охраняются.</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1154911</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2086,6 +2427,11 @@
           <t>Выявлять охраноспособные РИД</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1156691</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2111,6 +2457,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Методам защиты ИС и РИД, которые используются при стратегическом подходе к такой защите</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>846194</t>
         </is>
       </c>
     </row>
@@ -2132,6 +2483,11 @@
           <t>узнала больше о патентной стратегии,.</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1156846</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2155,6 +2511,11 @@
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1159066</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2170,6 +2531,11 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1162376</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2197,6 +2563,11 @@
           <t>выявлять охраноспособные РИД.</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1156788</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2224,6 +2595,11 @@
           <t>Выявлять охраноспособные результаты интеллектуальной деятельности, принимать меры по правовой охране результатов интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>547002</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2251,6 +2627,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1150922</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2278,6 +2659,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1151412</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2305,6 +2691,11 @@
           <t>Узнала много нового о патентах, изобретениях, авторском праве, интеллектуальной собственности и др.</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1157709</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2332,6 +2723,11 @@
           <t>выявлять охраноспособные результаты ИД, принимать меры по защите ИП в случае их нарушения</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1157354</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2359,6 +2755,11 @@
           <t>управлять правами на результаты интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1154764</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2386,6 +2787,11 @@
           <t>принимать меры по защите результата ИД</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1156907</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2413,6 +2819,11 @@
           <t>познакомилась с патентным правом, с формой защиты интеллектуальных прав</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1107122</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2436,6 +2847,11 @@
           <t>Все было новым в сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1163035</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2463,6 +2879,11 @@
           <t>Выявлять охраноспособные результаты ИД и принимать меры по правовой охране РИД, принимать меры по защите ИП в случае их нарушения</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1165201</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2490,6 +2911,11 @@
           <t>выявлять охраноспособные результаты ИД, способы и меры правовой охраны результатов ИД</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1165992</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2517,6 +2943,11 @@
           <t>Выявлять РИД по патентоведению. Управлять правами РИД</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1161612</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2544,6 +2975,11 @@
           <t>работать с законодательством</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1157580</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2567,6 +3003,11 @@
           <t>Изучили новый материал по патентоведению</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>892267</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2594,6 +3035,11 @@
           <t>В целом систематизировал знания в сфере интеллектуальной собственности, получил большее понимание благодаря примерам, приведенным на курсе.</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1168179</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2621,6 +3067,11 @@
           <t>Интеллектуальная собственность, вопросы ее охраны. Патентное право.</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1156780</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2648,6 +3099,11 @@
           <t>Подходам встраивания патентной стратегии в иерархию стратегий предприятия. Возможностям применения патентных стратегий в управлении НИД университета</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1163726</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2675,6 +3131,11 @@
           <t>Ознакомился с процедурой международного патентования</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1099047</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2702,6 +3163,11 @@
           <t>Определять исключительные права и личные неимущественные права</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1160374</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2729,6 +3195,11 @@
           <t>Изучила международное законодательство в области интеллектуальной собственности, порядок регистрации объектов интеллектуальной собственности, права на объекты интеллектуальной собственности и способы их защиты</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1172044</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2756,6 +3227,11 @@
           <t>Отличать исключительные права от авторских прав, меры защиты  ИК</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1156169</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2783,6 +3259,11 @@
           <t>выработка стратегии патентования, способы конкурентной борьбы</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1167161</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2810,6 +3291,11 @@
           <t>Закрепила знания в сфере управления правами на объекты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1165554</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2837,6 +3323,11 @@
           <t>Сиситематизировал теоретические знания об интеллектуальном праве</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1167403</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2864,6 +3355,11 @@
           <t>Как управлять авторским правом</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1155843</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2891,6 +3387,11 @@
           <t>Научился понимать юридические тонкости в процессе патентования и защиты авторских прав.</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>436772</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2918,6 +3419,11 @@
           <t>Работе с онлайн-курсом УрФУ</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1156921</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2945,6 +3451,11 @@
           <t>Систематизировать знания в области патентного права</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1156081</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2972,6 +3483,7 @@
           <t>Всему, т.к. я только начинаю работать в сфере ИС</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2999,6 +3511,11 @@
           <t>Проводить сравнительный анализ, защита прав в этой области</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1058621</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3026,6 +3543,11 @@
           <t>Подходам к управлению интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1120052</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3053,6 +3575,11 @@
           <t>Более подробно узнала о интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1156767</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3080,6 +3607,11 @@
           <t>особенностям защиты своих интеллектуальных прав</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1156784</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3107,6 +3639,11 @@
           <t>Управлению интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1158810</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3134,6 +3671,11 @@
           <t>Систематизировать полученные знания в сфере управления ИС</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1180595</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3161,6 +3703,11 @@
           <t>Работать быстро с информацией</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1158770</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3188,6 +3735,11 @@
           <t>получила общие представления по вопросам ИС</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1157138</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3215,6 +3767,11 @@
           <t>Понятия ИС, правовые основы защиты ИС</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>314133</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3242,6 +3799,11 @@
           <t>Систематизировал знания в области патентоведения и защиты прав на интеллектуальную собственность</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1156058</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3261,6 +3823,11 @@
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1156695</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3286,6 +3853,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Узнала больше о том, что такое интеллектуальная собственность, как ее защищать. Разные интересные факты из мировой практики по защите ИС.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>398662</t>
         </is>
       </c>
     </row>
@@ -3307,6 +3879,11 @@
           <t>получила общее представление об управлении интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1156206</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3334,6 +3911,11 @@
           <t>Получил знания о различных международных системах регистрации прав на ИС, о стратегических подходах в области ИС и некторорых других вопросах</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1177788</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3357,6 +3939,11 @@
           <t>Оценивать патентную чистоту и выявлять охраноспособные результаты интеллектуальной деятельности, выбирать оптимальный патентный портфель исходя из патентной стратегии и целей компании</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1157958</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3384,6 +3971,11 @@
           <t>Разобрался в объектах интеллектуальной собственности, возможных способах их охраны, узнал о различных конфликтных ситуациях и способах их решения</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1158021</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3411,6 +4003,11 @@
           <t>Узнала о видах объектов ИС, об их особенностях и особенностях правовой охраны.</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1159901</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3438,6 +4035,11 @@
           <t>Увидели возможность защищать интеллектуальную собственность в комплексе, не зацикливаясь на одном объекте и не ограничиваясь только одним подходом.</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1177281</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3461,6 +4063,11 @@
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1157904</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3488,6 +4095,11 @@
           <t>Разобралась, в чем разница между различными объектами интеллектуальной собственности, в ответственности за нарушение интеллектуальных прав, узнала о возможных конфликтных ситуациях и способах их решения</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1157097</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3515,6 +4127,11 @@
           <t>Изучила вопросы патентного права, авторского права, научилась определять объекты интеллектуальной собственности, узнала способы правовой защиты авторских прав.</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>919884</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3542,6 +4159,11 @@
           <t>Выявлять охраноспособные результаты интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1151100</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3567,6 +4189,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Получила общее представление о том какие способы защиты ИС существуют, как подойти к оценке необходимости защиты и выбору способа. С другой стороны, как оценить риски нарушить чье-то патентное право и не попасть под действие административного, или даже уголовного кодекса.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>239336</t>
         </is>
       </c>
     </row>
@@ -3584,6 +4211,11 @@
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1159053</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3603,6 +4235,11 @@
           <t>принимать меры по защите интеллектуальных прав и по правовой охране РИД</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1159457</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3628,6 +4265,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>быстро читать задания и стратегиям в конкурентных конфликтах</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>460006</t>
         </is>
       </c>
     </row>
@@ -3645,6 +4287,11 @@
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1175292</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3660,6 +4307,11 @@
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1174082</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3687,6 +4339,11 @@
           <t>выявлять охраноспособные результаты интеллектуальной деятельности, управлять правами на результаты интеллектуальной деятельности,</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1177050</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3714,6 +4371,11 @@
           <t>Защите прав создания интеллектуальной собственности (изобретения, проекты, образцы. логотипы)</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1176860</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3741,6 +4403,11 @@
           <t>Вся полученная в ходе прохождения данного курса информация  является новой, однако дает возможность слушателю самостоятельно оценить результат интеллектуальной деятельности, а также при необходимости принимать меры по его охране.</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1159863</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3768,6 +4435,11 @@
           <t>Разбираться в вопросах по интеллектуальной собственности. Управлять правами на результаты интеллектуальной деятельности.</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1155557</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3793,6 +4465,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>возможно, новое направление деятельности</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>241085</t>
         </is>
       </c>
     </row>
@@ -3814,6 +4491,11 @@
           <t>Новым понятиям, которые касаются интеллектуальной собственности, а также основам управления правами на РИД</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1160355</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3841,6 +4523,11 @@
           <t>получил дополнительную информацию, которая может пригодиться</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1150643</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3864,6 +4551,11 @@
           <t>Узнал о понятии ИС, научился отличать различные виды правовой охраны ИС и принимать меры по правовой охране ИС.</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1155773</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3891,6 +4583,11 @@
           <t>Решению вопросов по защите интеллектуальной собственности, по определению патентной частоты и рисков нарушения прав третьих лиц при использовании их изобретений в своей продукции</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1158949</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3914,6 +4611,11 @@
           <t>Проводить исследования на патентную чистоту и патентоспособность</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1157422</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3941,6 +4643,11 @@
           <t>Обновила знания по вопросам управления объектами интеллектуальной собственности,</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1153333</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3966,6 +4673,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>знания в области интеллектуальной собственности,авторского права и тд.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1137173</t>
         </is>
       </c>
     </row>
@@ -3983,6 +4695,11 @@
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>451813</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4006,6 +4723,11 @@
           <t>я узнала что является интеллектуальной собственностью, как ей управлять и охранять.</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1150337</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4033,6 +4755,11 @@
           <t>Получил базовые знания в сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1157306</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4060,6 +4787,11 @@
           <t>Выявлять охраноспособные результаты интеллектуальной деятельности и принимать меры по их правовой охране,</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1157874</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4087,6 +4819,11 @@
           <t>Основам пантентоведения, решению кейсов по интеллектуальной собственности, умению работать с интеллектуальными ресурсами</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1079331</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4114,6 +4851,11 @@
           <t>Управлять интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1062207</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4137,6 +4879,11 @@
           <t>получил представление об объектах интеллектуальной собственности и способах их правовой защиты</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1162262</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4164,6 +4911,11 @@
           <t>Разобралась с правами на результаты интеллектуальной собственности, что можно отнести под это понятие, познакомилась с 69 главой ГК РФ.</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1146253</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4189,6 +4941,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Разобралась с правами на результаты интеллектуальной собственности</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1062183</t>
         </is>
       </c>
     </row>
@@ -4210,6 +4967,11 @@
           <t>Различать объекты авторского и патентного права</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1149934</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4233,6 +4995,11 @@
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1168473</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4256,6 +5023,11 @@
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1160389</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4283,6 +5055,11 @@
           <t>Я актуализировала свои знания по предмету, все это применяю в своей профессиональной деятельности(патентовед)</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1157386</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4310,6 +5087,11 @@
           <t>Систематизировала имеющиеся знания, научилась составлять патентную стратегию, познакомилась с патентными троллями</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1169641</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4337,6 +5119,11 @@
           <t>Патентная стратегия, внутрикорпоративные и конкурентные конфликты</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1156268</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4364,6 +5151,11 @@
           <t>по другому относиться к результатам интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1168287</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4391,6 +5183,11 @@
           <t>Структурирована и углублена информация, касающаяся интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1168293</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4414,6 +5211,11 @@
           <t>ознакомилась с подходами интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1070612</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4437,6 +5239,11 @@
           <t>современные подходы по управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1070341</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4464,6 +5271,11 @@
           <t>Управлять интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1068213</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4491,6 +5303,11 @@
           <t>Очень много нового узнала об управлении интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1068643</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4518,6 +5335,11 @@
           <t>Понял, что охрана ИС это один из инструментов ведения конкурентного бизнеса.</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1159724</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4545,6 +5367,11 @@
           <t>повторение - мать учения, Знания - Сила</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1153995</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4572,6 +5399,11 @@
           <t>Основные понятия патентоведения. Раскрыл для себя такие понятия, как интеллектуальная собственность, патентная чистота, патентование, решение спорных патентных вопросов.</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1157511</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4599,6 +5431,11 @@
           <t>Способность проводить поиск и анализ патентной информации, организовывать правовую охрану инновационных разработок и оценивать патентную чистоту продукта.   Определение патентной стратегии и патентной политики предприятия, выбора оптимального способа правовой охраны разработки.</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1155945</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4626,6 +5463,11 @@
           <t>основные понятия, касающиеся интеллектуальной собственности, правила использования объектов интеллектуальной собственности, нормативные документы и этапа оформления патентов</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1132529</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4653,6 +5495,11 @@
           <t>патентной стратегии</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1164643</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4676,6 +5523,11 @@
           <t>новые знания</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1159929</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4703,6 +5555,11 @@
           <t>информации о интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1160721</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4730,6 +5587,11 @@
           <t>Узнала что такое патент, срок действия, как защитить свои права</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1162060</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4757,6 +5619,11 @@
           <t>Управлять интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1157236</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4784,6 +5651,11 @@
           <t>Ни чего нового.</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1157295</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4811,6 +5683,11 @@
           <t>я получил сведения об охране интеллектуальной собственности в РФ и мире</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1157222</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4838,6 +5715,11 @@
           <t>Различать виды РИД. Выявлять разницу между исключительным правом и неимущественым правом</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1157225</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4861,6 +5743,11 @@
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1159787</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4888,6 +5775,11 @@
           <t>Управление интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1157258</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4915,6 +5807,11 @@
           <t>Узнал новые определения, информацию и возможное  применение ее на практике</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1157353</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4938,6 +5835,11 @@
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1160441</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4965,6 +5867,11 @@
           <t>Узнала что такое интеллектуальная деятельность</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1157441</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4992,6 +5899,11 @@
           <t>Понимать, что из себя представляет интеллектуальная собственность</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1159622</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5017,6 +5929,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Способам охраны интеллектуальной собственности и пр.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1160225</t>
         </is>
       </c>
     </row>
@@ -5038,6 +5955,11 @@
           <t>Общая информация по интелектуальной собственности</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1157246</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5065,6 +5987,11 @@
           <t>Управлять интелектуальной собственностью</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1157530</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5092,6 +6019,11 @@
           <t>Что такое патентное право и всё что с ним связано</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1159893</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5119,6 +6051,11 @@
           <t>Управлять правами на результаты интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1158855</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5146,6 +6083,11 @@
           <t>Знание основ ГК в области защиты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1157357</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5173,6 +6115,11 @@
           <t>Обновила знания по патентоведению</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1157240</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5192,6 +6139,11 @@
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1164107</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5211,6 +6163,11 @@
           <t>Управлению ИС</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1178181</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5226,6 +6183,11 @@
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1153900</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5245,6 +6207,11 @@
           <t>Управлять РИД</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1161156</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5264,6 +6231,11 @@
           <t>Управлению ИС</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>241336</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5287,6 +6259,11 @@
           <t>конфликты, причины конфликтов</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1168759</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5310,6 +6287,11 @@
           <t>Управление интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1153289</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5335,6 +6317,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Управлять собственными идеями</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1178179</t>
         </is>
       </c>
     </row>
@@ -5356,6 +6343,11 @@
           <t>Управлять ИС</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1162953</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5381,6 +6373,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Что такое интеллектуальная деятельность. Работа с гражданским правом .</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1178171</t>
         </is>
       </c>
     </row>
@@ -5398,6 +6395,11 @@
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1157903</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5425,6 +6427,11 @@
           <t>различать изобретения от полезных моделей и промышленных образцов</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1169080</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5452,6 +6459,11 @@
           <t>Узнал о том, что прежде чем выпускать на рынок какой-то продукт, необходимо тщательно изучить рынок на предмет наличия уже запатентованных товаров, изобретений, товарных знаков и т.п. Узнал о существовании международного законодательства в сфере патентования.</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1178170</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5475,6 +6487,11 @@
           <t>Работать с онлайн курсами, основам урпавления ИС</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1156744</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5500,6 +6517,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>патентным рискам</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1152327</t>
         </is>
       </c>
     </row>
@@ -5521,6 +6543,11 @@
           <t>Основам урпавления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1157970</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5540,6 +6567,11 @@
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1176495</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5565,6 +6597,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>Определять что такое РИД, интеллектуальная собственность, интеллектуальные права. Способы решения конфликтов.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1153866</t>
         </is>
       </c>
     </row>
@@ -5586,6 +6623,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1153434</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5605,6 +6647,11 @@
           <t>Управлять РИДами, выбирать способ правовой охраны</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1156715</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5632,6 +6679,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5657,6 +6705,11 @@
       <c r="E213" t="inlineStr">
         <is>
           <t>Разобралась с формулой патента</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1163298</t>
         </is>
       </c>
     </row>
@@ -5678,6 +6731,11 @@
           <t>Основам УИС</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1157199</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5701,6 +6759,11 @@
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1165208</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5720,6 +6783,11 @@
           <t>Основам управления РИД</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1156763</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5747,6 +6815,11 @@
           <t>Повторил ранее изучаемый материал.</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>585508</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5774,6 +6847,11 @@
           <t>основным принципам правовой защиты интеллектуальной собственности, принципиальным различиям между патентом и авторским правом</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1156259</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5797,6 +6875,11 @@
           <t>Весь курс "Управление интеллектуальной собственностью" помог лучше разбираться  в сфере работы и охране конструкторской документации.</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1153837</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5824,6 +6907,11 @@
           <t>Стратегии управления интеллектуальной собственностью,  определение способов защиты результатов интеллектуальной деятельности в рамках стратегии  управления</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1153875</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5851,6 +6939,11 @@
           <t>Принципиально новому не научился, стал лучше понимать механики и принципы защиты ОИС</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1158445</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5878,6 +6971,11 @@
           <t>выявлять охраноспособные результаты интеллектуальной деятельности, принимать меры по правовой охране и т.д.</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1156700</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5905,6 +7003,11 @@
           <t>Получила представление об управлении интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1169106</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5930,6 +7033,11 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>Получила возможность разобраться в правовых аспектах патентования, усвоила основные правила игры в этой сфере</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1173431</t>
         </is>
       </c>
     </row>
@@ -5947,6 +7055,11 @@
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1171136</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5968,6 +7081,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>Получил для себя новую информацию в отношении  патентования и действия патентов за территорией РФ,  методов конкуренции при помощи прав на ИС</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1155366</t>
         </is>
       </c>
     </row>
@@ -5989,6 +7107,11 @@
           <t>Основные положения УИС</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1152557</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6016,6 +7139,11 @@
           <t>Основным понятиям, связанным с интеллектуальной собственностью. Методам защиты ИС.</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1156306</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6043,6 +7171,11 @@
           <t>ориентироваться в теории и практике применения авторского права, разбираться в видах интеллектуальной собственности и способах их защиты</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1061126</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6068,6 +7201,11 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>Основные понятия и принципы ИС, защита ИС, юридические аспекты ИС</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1156825</t>
         </is>
       </c>
     </row>
@@ -6089,6 +7227,11 @@
           <t>Управлению ИС</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1151212</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6116,6 +7259,11 @@
           <t>Узнал о том, что такое интеллектуальная собственность и способы ее защиты</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1155480</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6143,6 +7291,11 @@
           <t>Узнал как защищать патентные права, что такое интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1155582</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6170,6 +7323,11 @@
           <t>Повысил свою информированность в вопросах охраны объектов интеллектуальной собственности и защиты интеллектуальных прав.</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>585512</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6197,6 +7355,11 @@
           <t>Получила возможность разобраться в правовых аспектах патентования, усвоила основные правила игры в этой сфере</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1153406</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6224,6 +7387,11 @@
           <t>Узнала подробности о интеллектуальной собственности, ее видах. Стало понятно, какие объекты ИС являются охраноспособными.  Как следует взаимодействовать с работодателем по поводу ИС.</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1063710</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6249,6 +7417,11 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>Приведены в систему имевшиеся некоторые сведения в области интеллектуальной собственности</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1162075</t>
         </is>
       </c>
     </row>
@@ -6270,6 +7443,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1153363</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6289,6 +7467,11 @@
           <t>Теорию управления ИС</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1156722</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6316,6 +7499,11 @@
           <t>Получила возможность разобраться в правовых аспектах патентования, усвоила основные правила игры в этой сфере</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1153456</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6339,6 +7527,11 @@
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1155013</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6366,6 +7559,11 @@
           <t>Очень многому.Вообще в этой области был пробел в знаниях.</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1157370</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6393,6 +7591,11 @@
           <t>Основные положения УИС</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1151711</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6408,6 +7611,7 @@
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6427,6 +7631,11 @@
           <t>Основы управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1153340</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6442,6 +7651,11 @@
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1153310</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6467,6 +7681,11 @@
       <c r="E247" t="inlineStr">
         <is>
           <t>Управлять правами  на результаты интеллектуальной собственности</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1152407</t>
         </is>
       </c>
     </row>
@@ -6488,6 +7707,11 @@
           <t>Основным тезисам по управлению интеллектуальной собственностью. Использовать для повышения квалификации технологии дистанционного образования.</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1157817</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6515,6 +7739,11 @@
           <t>Познакомились с понятийным аппаратом, нормативно-правовыми документами, уточнили понятие интеллектуальной деятельности,</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>1121173</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6540,6 +7769,11 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>Для меня было познавательно все. Понимать основы интеллектуального права.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1154145</t>
         </is>
       </c>
     </row>
@@ -6557,6 +7791,11 @@
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1156113</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6584,6 +7823,11 @@
           <t>общее представление о сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>1157073</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6605,6 +7849,11 @@
       <c r="E253" t="inlineStr">
         <is>
           <t>Узнал, что есть ГК РФ часть 4, где написано, что делать в области ИС.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1156399</t>
         </is>
       </c>
     </row>
@@ -6622,6 +7871,11 @@
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1153562</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6649,6 +7903,11 @@
           <t>Узнала о стратегиях поведения в сфере ИС</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>1156369</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6676,6 +7935,11 @@
           <t>Понимать основные принципы охраны РИД</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>1156884</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6703,6 +7967,11 @@
           <t>Повысил свою информированность в вопросах охраны объектов интеллектуальной собственности и защиты интеллектуальных прав.</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>1154848</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6730,6 +7999,11 @@
           <t>Получение общих знаний об интеллектуальной собственности, патентах, авторском праве, РИД. Как это закреплено в законодательстве, как на практике этим пользоваться.</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>1156807</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6755,6 +8029,11 @@
       <c r="E259" t="inlineStr">
         <is>
           <t>основы теории ИС</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>1155880</t>
         </is>
       </c>
     </row>
@@ -6772,6 +8051,11 @@
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>1154042</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6799,6 +8083,11 @@
           <t>Способам охраны результатов интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>1153802</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6826,6 +8115,11 @@
           <t>выявлять охраноспособные результаты интеллектуальной деятельности, принимать меры по правовой охране и т.д.</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>1156264</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6853,6 +8147,11 @@
           <t>Узнала много нового о интеллектуальной собственности, патентах и критериях оформления, что очень поможет при написании диссертации и в последующей работе</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>1155866</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6880,6 +8179,11 @@
           <t>Новая информация об объектах интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>1153724</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6907,6 +8211,11 @@
           <t>Основам управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>1154073</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6930,6 +8239,11 @@
           <t>применять полученную информацию в работе</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>1155798</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6957,6 +8271,11 @@
           <t>В рамках курса я узнал, какие могут быть объекты ИС, какая им предоставляется правовая охрана и какими законами она регулируется, какие могут быть нюансы при реализации правовой охраны моим результатам интеллектуальной деятельности.</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>1155922</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6984,6 +8303,11 @@
           <t>Овладение компетенциями в области интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>1156280</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7011,6 +8335,11 @@
           <t>Глубокие познания в области интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>1153783</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7038,6 +8367,11 @@
           <t>Основам управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>1155552</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7065,6 +8399,11 @@
           <t>Изучила основные понятия темы "Интеллектуальная собственность, патентное право", главы ГК РФ по данным темам</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>1158940</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7092,6 +8431,11 @@
           <t>Изучила понятие интеллектуальная собственность, основы патентного, авторского права, способы защиты, патентоведение.</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>1157056</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7119,6 +8463,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>1153383</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7146,6 +8495,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>1169511</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7173,6 +8527,11 @@
           <t>Получение общих знаний об интеллектуальной собственности, патентах, авторском праве, РИД. Как это закреплено в законодательстве, как на практике этим пользоваться.</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>1156004</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7200,6 +8559,11 @@
           <t>Весь курс "Управление интеллектуальной собственностью" был для меня новым и вся информация в нем.</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>1156078</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7227,6 +8591,11 @@
           <t>Способам охраны результатов интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>1155926</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7254,6 +8623,11 @@
           <t>Идентифицировать интеллектуальную собственность и интеллектуальные права.  Ориентироваться\ в результатах интеллектуальной деятельности.  Ориентироваться в части 4 ГК РФ.</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>1153548</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7279,6 +8653,11 @@
       <c r="E279" t="inlineStr">
         <is>
           <t>Узнала более подробнее: что такое интеллектуальная собственность, ее способы правовой охраны. Какие бывают РИД и в чем их особенность. А также особенности разрешения конфликтов в сфере интеллектуальной собственности.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>1168922</t>
         </is>
       </c>
     </row>
@@ -7296,6 +8675,11 @@
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>1153364</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7319,6 +8703,11 @@
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>1153305</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7346,6 +8735,11 @@
           <t>Курс помог приобрести и обновить навыки работы с  интеллектуальной деятельностью, ориентироваться в правовых основах  защиты ИД</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>1151176</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7373,6 +8767,11 @@
           <t>Познакомились с понятийным аппаратом, нормативно-правовыми документами, уточнили понятие интеллектуальной деятельности,</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>1156976</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7400,6 +8799,11 @@
           <t>Изучил 4 часть КГ РФ, в частности патентное право, способы закрепления и защиты прав, возможности управления исключительными правами.</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>1156860</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7427,6 +8831,11 @@
           <t>усвоила азы интеллектуального права</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>1156898</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7454,6 +8863,11 @@
           <t>ориентироваться в теории и практике применения авторского права, разбираться в видах интеллектуальной собственности и способах их защиты</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>1156115</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7481,6 +8895,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность, в области патентного законодательства</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>1157505</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7508,6 +8927,11 @@
           <t>Основам охраны интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>1066073</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7535,6 +8959,11 @@
           <t>Освежила в памяти имеющиеся знания и структурировала информацию в отношении способов правовой охраны и конкурентного поведения</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>1157206</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7562,6 +8991,11 @@
           <t>Терминология в области ИС. Основные понятия и принципы, необходимые для построения стратегии защиты ИС.</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>1153787</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7587,6 +9021,11 @@
       <c r="E291" t="inlineStr">
         <is>
           <t>Получил основы теории по ИС.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>960360</t>
         </is>
       </c>
     </row>
@@ -7608,6 +9047,11 @@
           <t>Стратегии работы с интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>1129076</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7635,6 +9079,11 @@
           <t>Патентной стратегии</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>1081767</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7662,6 +9111,11 @@
           <t>hjhj</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7689,6 +9143,11 @@
           <t>Понятиям, особенностям защиты и управления</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>1129844</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7716,6 +9175,11 @@
           <t>Узнал про меры правовой охраны результатов интеллектуальной собственности. Нормативно-правовой защите.</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>1138991</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7743,6 +9207,11 @@
           <t>Для было полезно понять основы  для построения системы управления ИС на предприятии, в том числе для определения базовых направлений действий при начале новых НИОКР</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>1158766</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7770,6 +9239,11 @@
           <t>ориентироваться в теории и практике применения авторского права, разбираться в видах интеллектуальной собственности и способах их защиты</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>1112240</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7797,6 +9271,11 @@
           <t>оСВОЕНИЕ принципиально новой области знания для себя</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>1138531</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7824,6 +9303,11 @@
           <t>ориентироваться в теории и практике применения авторского права, разбираться в видах интеллектуальной собственности и способах их защиты</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>1133374</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7851,6 +9335,11 @@
           <t>Для было полезно понять основы  для построения системы управления ИС на предприятии, в том числе для определения базовых направлений действий при начале новых НИОКР</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>1129832</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7874,6 +9363,11 @@
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>1140056</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7901,6 +9395,11 @@
           <t>Основам управление интеллектуальной собственностью, знания в области патентования</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>1129162</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7926,6 +9425,11 @@
       <c r="E304" t="inlineStr">
         <is>
           <t>В рамках курса я узнал, какие могут быть объекты ИС, какая им предоставляется правовая охрана и какими законами она регулируется, какие могут быть нюансы при реализации правовой охраны моим результатам интеллектуальной деятельности.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>1155982</t>
         </is>
       </c>
     </row>
@@ -7943,6 +9447,11 @@
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>451628</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7970,6 +9479,11 @@
           <t>Весь курс "Управление интеллектуальной собственностью" был для меня новым и вся информация в нем.</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>1133297</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7997,6 +9511,11 @@
           <t>Основам знаний в сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>1142166</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8024,6 +9543,11 @@
           <t>Систематизировал информацию по вопросам защиты прав на ИС</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>398959</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8051,6 +9575,11 @@
           <t>Основам в области защиты прав интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>1127357</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8078,6 +9607,11 @@
           <t>Узнала о стратегиях поведения в сфере ИС</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>493878</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8103,6 +9637,11 @@
       <c r="E311" t="inlineStr">
         <is>
           <t>Изучила понятие интеллектуальной собственности, объекты интеллектуальной деятельности, классификацию, узнала какие этапы нужно пройти чтобы получить патент и многое другое.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>1134007</t>
         </is>
       </c>
     </row>
@@ -8124,6 +9663,11 @@
           <t>Узнала более подробнее: что такое интеллектуальная собственность, ее способы правовой охраны. Какие бывают РИД и в чем их особенность. А также особенности разрешения конфликтов в сфере интеллектуальной собственности.</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>1129158</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8149,6 +9693,11 @@
       <c r="E313" t="inlineStr">
         <is>
           <t>Узнала об объектах интеллектуальной собственности и способах их правовой охраны. О правах авторов и правообладателей.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>1128950</t>
         </is>
       </c>
     </row>
@@ -8170,6 +9719,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>436426</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8197,6 +9751,11 @@
           <t>Систематизировала информацию по вопросам защиты прав на ИС</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8224,6 +9783,11 @@
           <t>Узнала о стратегиях поведения в сфере ИС</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>1145892</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8251,6 +9815,11 @@
           <t>общее представление о сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>1143235</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8278,6 +9847,11 @@
           <t>Определять что такое РИД, интеллектуальная собственность, интеллектуальные права.</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>1154301</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8305,6 +9879,11 @@
           <t>Определять значение интеллектуальной собственности в социуме</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>1123567</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8332,6 +9911,11 @@
           <t>Я научилась принимать меры по правовой охране результатов интеллектуальной деятельности и принимать меры по защите интеллектуальных прав в случае их нарушения</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>1138552</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8357,6 +9941,11 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>Данный курс помог мне разобраться в вопросах связанных с защитой интеллектуальной собственности</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>1132876</t>
         </is>
       </c>
     </row>
@@ -8374,6 +9963,11 @@
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>1141701</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8401,6 +9995,11 @@
           <t>Систематизировала имеющиеся знания в области управления интеллектуальной собственностью, а так же получила новые знания, которые пригодятся в дальнейшей научной деятельности, в том числе и при преподавании соответствующих дисциплин.</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>1128570</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8428,6 +10027,11 @@
           <t>Разбираться в порядке защиты и охраны интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>1141297</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8455,6 +10059,11 @@
           <t>тонкостям применения интеллектуального права</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>1084711</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8482,6 +10091,11 @@
           <t>Различать исключительные права и личные неимущественные права. Характеристикам объектов интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>1127020</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8509,6 +10123,11 @@
           <t>Основам патентного и авторского права</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>1154398</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8536,6 +10155,11 @@
           <t>Основам по данной дисциплине</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>476351</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8559,6 +10183,11 @@
           <t>Интересный опыт</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>983323</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8586,6 +10215,11 @@
           <t>Получила новые знания и умения в плане организации патентной защиты</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>1130629</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8613,6 +10247,11 @@
           <t>Сформировал перечень источников информации в сфере управления интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>992722</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8640,6 +10279,11 @@
           <t>Овладение компетенциями в области интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>1136905</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8667,6 +10311,11 @@
           <t>тонкостям применения интеллектуального права</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>1130372</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8694,6 +10343,11 @@
           <t>Определять что такое РИД, интелектуальная собственность, интеллектуальные права.</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>1128015</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8719,6 +10373,11 @@
       <c r="E335" t="inlineStr">
         <is>
           <t>Системно оценивать совокупность объектов интеллектуальной собственности предприятия, базовым знаниям в области управления ими и защиты своих прав.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>1127227</t>
         </is>
       </c>
     </row>
@@ -8740,6 +10399,11 @@
           <t>Узнал о том, что такое интеллектуальная собственность и способы ее защиты</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>1133032</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -8767,6 +10431,11 @@
           <t>Правильное формирование портфеля для охраны результатов интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>1142235</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -8792,6 +10461,11 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>Управлять правами  на результаты интеллектуальной собственности</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>1134611</t>
         </is>
       </c>
     </row>
@@ -8813,6 +10487,11 @@
           <t>Получил общее представление об использовании интеллектуальной собственности.</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>1131089</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -8840,6 +10519,11 @@
           <t>Я изучил основы в рамках курса по управлению интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>1127131</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -8867,6 +10551,11 @@
           <t>В рамках курса я узнал, какие могут быть объекты ИС, какая им предоставляется правовая охрана, какие могут быть нюансы при реализации правовой охраны моим результатам интеллектуальной деятельности.</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>1127298</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -8894,6 +10583,11 @@
           <t>Для меня было познавательно все. Понимать основы интеллектуального права.</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>1142956</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8921,6 +10615,11 @@
           <t>Курс помог приобрести и обновить навыки работы с  интеллектуальной деятельностью, ориентироваться в правовых основах  защиты ИД</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>963000</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8944,6 +10643,11 @@
           <t>Более подробно разобрался о возможности получения патента.</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>1127299</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8971,6 +10675,11 @@
           <t>Курс был принципиально новым, почерпнул критерии патентоспособности, способы проверки патентной чистоты продукта. Осознал необходимость создания патентной стратегии на предприятии</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>763694</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8994,6 +10703,11 @@
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>500003</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9021,6 +10735,11 @@
           <t>получил знания о патентных  стратегиях, патентных конфликтах  и  способах их решения</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>1136727</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9048,6 +10767,11 @@
           <t>Управлению интеллектуальной собственностью и защите авторского права.</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>1131355</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9075,6 +10799,11 @@
           <t>Курс был принципиально новым, почерпнул критерии патентоспособности, способы проверки патентной чистоты продукта. Осознал необходимость создания патентной стратегии на предприятии</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>1128501</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9098,6 +10827,11 @@
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>400695</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9125,6 +10859,11 @@
           <t>Получила для себя новую информацию в отношении  патентования и действия патентов за территорией РФ,  методов конкуренции при помощи прав на ИС</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>1123318</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9152,6 +10891,11 @@
           <t>Новая информация об объектах интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>1141214</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9179,6 +10923,11 @@
           <t>Новое всегда привлекает внимание.</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>1131677</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9206,6 +10955,11 @@
           <t>изучила понятие интеллектуальной собственности и способы правовой охраны РИД</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>1128881</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9233,6 +10987,11 @@
           <t>разбираться в вопросах, напрямую связанных с работой - интеллектуальной собственностью, и в частности , с авторским правом</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>1138982</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9260,6 +11019,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>963950</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9287,6 +11051,11 @@
           <t>усвоила азы интеллектуального права</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>607866</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9314,6 +11083,11 @@
           <t>Освежил знания в области охраны и управления интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>1139993</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9341,6 +11115,11 @@
           <t>Получил представление об управлении интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>1129510</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9368,6 +11147,11 @@
           <t>Для меня было познавательно все. Понимать основы интеллектуального права.</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>1141520</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9395,6 +11179,11 @@
           <t>Данная образовательная программа для меня была новой 2 и 3 разделом.</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>1132268</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9422,6 +11211,11 @@
           <t>Курс помог приобрести и обновить навыки работы с  интеллектуальной деятельностью, ориентироваться в правовых основах  защиты ИД</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>597359</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9449,6 +11243,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>1130438</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9476,6 +11275,11 @@
           <t>Более подробно разобрался о возможности получения патента.</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>77393</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9499,6 +11303,11 @@
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>499742</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9526,6 +11335,11 @@
           <t>Весь курс "Управление интеллектуальной собственностью" был для меня новым и вся информация в нем.</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>503996</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9553,6 +11367,11 @@
           <t>Основам управление интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>597393</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -9580,6 +11399,11 @@
           <t>Понимать ключевые различия в исключительных и авторских правах</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>452409</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -9607,6 +11431,11 @@
           <t>Управлять правами  на результаты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>1128849</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -9634,6 +11463,11 @@
           <t>применять в работе</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>1129994</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -9661,6 +11495,11 @@
           <t>Узнала о стратегиях поведения в сфере ИС</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>1132439</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -9688,6 +11527,11 @@
           <t>Идентифицировать интеллектуальную собственность и интеллектуальные права.  Ориентироваться\ в результатах интеллектуальной деятельности.  Ориентироваться в части 4 ГК РФ.</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>1130050</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -9715,6 +11559,11 @@
           <t>Узнал что такое интеллектуальная собственность и основные способы ее правовой охраны. А также варианты разрешения конфликтов в данной сфере.</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>1134210</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -9738,6 +11587,11 @@
           <t>Получение общих знаний об интеллектуальной собственности, патентах, авторском праве, РИД. Как это закреплено в законодательстве, как на практике этим пользоваться.</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>1130909</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -9765,6 +11619,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>1132321</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -9792,6 +11651,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>1155187</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -9819,6 +11683,11 @@
           <t>Освежил знания, полученные в 80-х годах в ВГКПИ</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>1142075</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -9846,6 +11715,11 @@
           <t>Решать конфликты интересов в сфере управления интеллектуальной собственности.</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>435546</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -9869,6 +11743,11 @@
         </is>
       </c>
       <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>1132643</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -9896,6 +11775,11 @@
           <t>Понял многие особенности управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>1138752</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9915,6 +11799,11 @@
         </is>
       </c>
       <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>77656</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -9942,6 +11831,11 @@
           <t>Получила представление об управлении интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>482151</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -9965,6 +11859,11 @@
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>1134805</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -9984,6 +11883,11 @@
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>1130013</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10011,6 +11915,11 @@
           <t>Управлению интеллектуальными правами</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>539067</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10034,6 +11943,11 @@
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>1131978</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10057,6 +11971,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>1131240</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10076,6 +11995,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>242056</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10103,6 +12027,11 @@
           <t>Систематизации знаний в области управления ИС</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>1130173</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10130,6 +12059,11 @@
           <t>Разбираться в порядке защиты и охраны интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>1131474</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10153,6 +12087,11 @@
           <t>основным понятиям ,связанным с интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>1139565</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10178,6 +12117,11 @@
       <c r="E392" t="inlineStr">
         <is>
           <t>Узнал новые правовые нормы и принципы</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>1123027</t>
         </is>
       </c>
     </row>
@@ -10195,6 +12139,11 @@
           <t>Получил базовые знания в области управления интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>457065</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10222,6 +12171,11 @@
           <t>Получила возможность разобраться в правовых аспектах патентования, усвоила основные правила игры в этой сфере</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>408204</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10247,6 +12201,11 @@
       <c r="E395" t="inlineStr">
         <is>
           <t>Изучила правовые основы интеллектуальной деятельности, разобрались с авторскими и исключительными правами</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>1059249</t>
         </is>
       </c>
     </row>
@@ -10268,6 +12227,11 @@
           <t>Изучили правовые основы интеллектуальной деятельности.</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>1130914</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10291,6 +12255,11 @@
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>1131688</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10318,6 +12287,11 @@
           <t>Получила представление об управлении интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>1131199</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10345,6 +12319,11 @@
           <t>Новой сфере деятельности, управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>1127396</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10372,6 +12351,11 @@
           <t>Поняла многие особенности правовой организации защиты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>963867</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10399,6 +12383,11 @@
           <t>Всему, так как тема для меня новая.</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>1143275</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10422,6 +12411,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>835384</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10449,6 +12443,11 @@
           <t>Полную, систиматезированную информацию о защите интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>1129971</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10476,6 +12475,11 @@
           <t>Весь курс "Управление интеллектуальной собственностью" был для меня новым и вся информация в нем.</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>1128554</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10503,6 +12507,11 @@
           <t>Изучила понятие интеллектуальной собственности, объекты интеллектуальной деятельности, классификацию, узнала какие этапы нужно пройти чтобы получить патент и многое другое.</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>1139755</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -10528,6 +12537,11 @@
       <c r="E406" t="inlineStr">
         <is>
           <t>любопытно. сталкиваюсь с подобной организацией тестирования впервые. есть чему поучиться.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>1133545</t>
         </is>
       </c>
     </row>
@@ -10549,6 +12563,11 @@
           <t>Управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>1130301</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -10576,6 +12595,11 @@
           <t>Узнала об объектах интеллектуальной собственности и способах их правовой охраны. О правах авторов и правообладателей.</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>591372</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -10603,6 +12627,11 @@
           <t>Узнала много нового о интеллектуальной собственности, патентах и критериях оформления, что очень поможет при написании диссертации и в последующей работе</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>462217</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -10626,6 +12655,11 @@
         </is>
       </c>
       <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>1136679</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -10653,6 +12687,11 @@
           <t>Для меня, как новичка, было познавательно все. Это основа интеллектуального права.</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>1129220</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -10680,6 +12719,11 @@
           <t>Начинаю свою карьеру в сфере защиты интеллектуальной собственности, из курса узнала теоретические основы, определения, все то, что требуется знать на начальном этапе.</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>1128804</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -10707,6 +12751,11 @@
           <t>Более подробно разобрался о возможности получения патента.</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>1129922</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -10734,6 +12783,11 @@
           <t>Управление интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>1128604</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -10761,6 +12815,11 @@
           <t>Изучила основы правовой охраны результатов интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>1127808</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -10788,6 +12847,11 @@
           <t>Получил знания в основах патентного права, интеллектуальной собственности. Научился оценивать патентоспособность РИД, выбирать методы правовой охраны РИД</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>1130870</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -10815,6 +12879,11 @@
           <t>Определять значение интеллектуальной собственности в социуме</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>1142169</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -10842,6 +12911,11 @@
           <t>Всему, так как тема для меня новая.</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>735592</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -10869,6 +12943,11 @@
           <t>Классификации видов интеллектуальной собственности; различие между авторским правом и патентообладанием; особенности регистрации ИС</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>1130281</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -10896,6 +12975,11 @@
           <t>Систематизировала информацию по вопросам защиты прав на ИС</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>1127458</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -10923,6 +13007,11 @@
           <t>Узнала об объектах интеллектуальной собственности и способах их правовой охраны. О правах авторов и правообладателей.</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>1126840</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -10946,6 +13035,11 @@
         </is>
       </c>
       <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>319453</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -10973,6 +13067,11 @@
           <t>Узнала много нового о интеллектуальной собственности, патентах и критериях оформления, что очень поможет при написании диссертации и в последующей работе</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>1127629</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11000,6 +13099,11 @@
           <t>Для мены - преподавателя вуза - была интересна только первая половина курса - вопросы, связанные с патентным портфелем, конкуренцией и пр. не актуальны для моей деятельности. Первая половина, связанная с понятийным аппаратом и законодательство - безусловно, полезна и поучительна. В то же время, я не смог найти ответов на ряд интересующих меня вопросов, связанных с применением патентного права именно в вопросах, связанных с учебным процессом вуза.</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>1140696</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11027,6 +13131,11 @@
           <t>Курс позволил структурировать информацию, относящуюся к предмету курса.</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>403600</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11054,6 +13163,11 @@
           <t>Различать объекты, которые имеют охрану авторским правом и те, которые целесообразно патентовать</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>1118244</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11081,6 +13195,11 @@
           <t>Курс позволил структурировать информацию, относящуюся к предмету курса.</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>1131451</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11108,6 +13227,11 @@
           <t>Более подробно разобрался о возможности получения патента.</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>1131401</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -11135,6 +13259,11 @@
           <t>Приведены в систему имевшиеся некоторые сведения в области интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>1141456</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -11158,6 +13287,11 @@
           <t>Структурировать знания</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>1128600</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -11181,6 +13315,11 @@
           <t>Формировать патентный портфель инновационного проекта, оценивать стоимость интеллектуальных прав, проводить патентные исследования.</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>1133379</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -11208,6 +13347,11 @@
           <t>Разбираться в порядке защиты и охраны интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>964432</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -11235,6 +13379,11 @@
           <t>Много практических примеров, что помогло лучше понять тонкости и сложности защиты уникальных технических решений.</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>1130811</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -11262,6 +13411,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>1130336</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -11289,6 +13443,11 @@
           <t>Новой сфере деятельности, азам управления интеллектуальной собственностью.</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>1133149</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -11316,6 +13475,11 @@
           <t>Систематизировано посмотрел на вопросы защиты прав на ИС</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>1138886</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -11339,6 +13503,11 @@
           <t>Новой сфере деятельности, управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>1059795</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11366,6 +13535,11 @@
           <t>Изучила правовые основы интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>1140675</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11393,6 +13567,11 @@
           <t>Всему, так как тема для меня новая.</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>268442</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -11420,6 +13599,11 @@
           <t>Разбираться в своих правах</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>8954</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -11447,6 +13631,11 @@
           <t>Стал лучше ориентироваться в области управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>342751</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -11470,6 +13659,11 @@
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>1132803</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -11493,6 +13687,11 @@
           <t>Новой сфере деятельности, управлению интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>1128853</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11520,6 +13719,11 @@
           <t>разбираться в вопросах, напрямую связанных с работой - интеллектуальной собственностью, и в частности , с авторским правом</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>384687</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -11547,6 +13751,11 @@
           <t>Познакомились с понятийным аппаратом, нормативно-правовыми документами, уточнили понятие интеллектуальной деятельности,</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>1102062</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -11574,6 +13783,11 @@
           <t>Стал лучше ориентироваться в области управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>437877</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -11597,6 +13811,11 @@
           <t>Классификации видов интеллектуальной собственности; различие между авторским правом и патентообладанием; особенности регистрации ИС</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>1143441</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -11622,6 +13841,11 @@
       <c r="E448" t="inlineStr">
         <is>
           <t>Разбираться в своих правах</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>590495</t>
         </is>
       </c>
     </row>
@@ -11639,6 +13863,11 @@
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>1127336</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -11662,6 +13891,11 @@
           <t>Данный курс помог мне в полной степени разобраться в вопросах связанных с защитой интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>1131981</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -11685,6 +13919,11 @@
           <t>Стал лучше ориентироваться в области управления интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>1131967</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -11712,6 +13951,11 @@
           <t>Основам</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>1156972</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -11739,6 +13983,11 @@
           <t>Классификации видов интеллектуальной собственности; различие между авторским правом и патентообладанием; особенности регистрации ИС</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>1127419</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -11766,6 +14015,11 @@
           <t>Определять что такое РИД, интелектуальная собственность, интеллектуальные права.</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>1129968</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -11793,6 +14047,11 @@
           <t>Эта дисциплина абсолютно новая для меня</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>1127379</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -11820,6 +14079,11 @@
           <t>Управлять правами  на результаты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>1127090</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -11843,6 +14107,11 @@
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>1130863</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -11870,6 +14139,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>1126910</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -11893,6 +14167,11 @@
           <t>Управление интеллектуальной собственностью</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>1128167</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -11920,6 +14199,11 @@
           <t>Много практических примеров, что помогло лучше понять тонкости и сложности защиты уникальных технических решений.</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>1129532</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -11947,6 +14231,11 @@
           <t>Курс позволил структурировать информацию, относящуюся к предмету курса.</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>457104</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -11974,6 +14263,11 @@
           <t>Узнала об объектах интеллектуальной собственности и способах их правовой охраны. О правах авторов и правообладателей.</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>1104414</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -11995,6 +14289,11 @@
       <c r="E463" t="inlineStr">
         <is>
           <t>узнала о патентных стратегиях, особенностях работы с доменными именами</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>1128521</t>
         </is>
       </c>
     </row>
@@ -12012,6 +14311,11 @@
         </is>
       </c>
       <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>1127702</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12039,6 +14343,11 @@
           <t>Выявить охраноспособные результаты интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>1131647</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12066,6 +14375,11 @@
           <t>общее представление о сфере интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>1144948</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12093,6 +14407,11 @@
           <t>Выявлять охраносособные результаты интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>1140496</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12120,6 +14439,11 @@
           <t>Узнала более подробнее: что такое интеллектуальная собственность, ее способы правовой охраны. Какие бывают РИД и в чем их особенность. А также особенности разрешения конфликтов в сфере интеллектуальной собственности.</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>1127576</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -12147,6 +14471,11 @@
           <t>Изучила понятие интеллектуальной собственности, объекты интеллектуальной деятельности, классификацию, узнала какие этапы нужно пройти чтобы получить патент и многое другое.</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>1127417</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12170,6 +14499,11 @@
           <t>Узнала о стратегиях поведения в сфере ИС</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>1131182</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12197,6 +14531,11 @@
           <t>Весь курс "Управление интеллектуальной собственностью" был для меня новым и вся информация в нем.</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>1128487</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -12224,6 +14563,11 @@
           <t>Разбираться в порядке защиты и охраны интеллектуальной собственности</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>761535</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -12251,6 +14595,11 @@
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>1127632</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12278,6 +14627,11 @@
           <t>систематизация знаний в сфере ИС</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>1127800</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12305,6 +14659,11 @@
           <t>Узнала о том, что такое интеллектуальная собственность и способы ее защиты</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>948566</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -12330,6 +14689,11 @@
       <c r="E476" t="inlineStr">
         <is>
           <t>Я узнала, что такое патент, защита авторских прав.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>1127424</t>
         </is>
       </c>
     </row>
@@ -12347,6 +14711,11 @@
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>1130812</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -12372,6 +14741,11 @@
       <c r="E478" t="inlineStr">
         <is>
           <t>Ориентироваться в понятии интеллектуальная собственность.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>1127241</t>
         </is>
       </c>
     </row>
@@ -12389,6 +14763,11 @@
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>1130040</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -12416,6 +14795,11 @@
           <t>Различать понятия "изобретение", "полезная модель" и "промышленный": выявлять охраноспособные результаты деятельности, принимать меры по правовой охране интеллектуальной деятельности</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>1130844</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -12443,6 +14827,11 @@
           <t>разбираться в вопросах, напрямую связанных с работой - интеллектуальной собственностью, и в частности , с авторским правом</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>1130152</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -12470,6 +14859,11 @@
           <t>систематизация знаний в сфере ИС</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>1127618</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -12497,6 +14891,7 @@
           <t>`ZSXCV</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -12520,6 +14915,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
